--- a/doc/Technical_Keys_Points.xlsx
+++ b/doc/Technical_Keys_Points.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="enhancement_Java8" sheetId="1" r:id="rId1"/>
     <sheet name="Algorithm" sheetId="3" r:id="rId2"/>
     <sheet name="Key_words_Java_8" sheetId="2" r:id="rId3"/>
+    <sheet name="Exception" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
   <si>
     <t>S. No</t>
   </si>
@@ -259,12 +260,123 @@
   <si>
     <t>Algorithm used</t>
   </si>
+  <si>
+    <t>ExceptionName</t>
+  </si>
+  <si>
+    <t>Kind of Exception</t>
+  </si>
+  <si>
+    <t>Scenario to throw</t>
+  </si>
+  <si>
+    <t>How to Avoid</t>
+  </si>
+  <si>
+    <t>ConcurrentModificationException</t>
+  </si>
+  <si>
+    <t>RuntimeException</t>
+  </si>
+  <si>
+    <r>
+      <t>Java Collection classes are fail-fast, which means if the Collection will be changed while some thread is traversing over it using iterator, the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>iterator.next()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> will throw </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ConcurrentModificationException.
+Eg. i. Iterator&lt;String&gt; it = myList.iterator();
+  while (it.hasNext()) {
+   String value = it.next();
+   System.out.println("List Value:" + value);
+   if (value.equals("3"))
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>myList.remove(value);</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  }
+ii. Iterator&lt;String&gt; it1 = myMap.keySet().iterator();
+  while (it1.hasNext()) {
+   String key = it1.next();
+   System.out.println("Map Value:" + myMap.get(key));
+   if (key.equals("2")) {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>myMap.put("1", "4");</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    // myMap.put("4", "4");
+   }</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> i. Convert list into array and then iterate but this approach we can apply on the samll list.
+Ii.For HashMap use ConcurrentHashMap and for List use CopyOnWriteArrayList.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +406,33 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -917,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,4 +1205,58 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="407.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/Technical_Keys_Points.xlsx
+++ b/doc/Technical_Keys_Points.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="enhancement_Java8" sheetId="1" r:id="rId1"/>
-    <sheet name="Algorithm" sheetId="3" r:id="rId2"/>
+    <sheet name="Algorithm_Time_Complexity" sheetId="3" r:id="rId2"/>
     <sheet name="Key_words_Java_8" sheetId="2" r:id="rId3"/>
     <sheet name="Exception" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
   <si>
     <t>S. No</t>
   </si>
@@ -250,15 +250,6 @@
   </si>
   <si>
     <t>java.lang.Runnable is the classic example of the functional interface as its have only one method run(); as a abstract method</t>
-  </si>
-  <si>
-    <t>Sorting/Searching Name</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Algorithm used</t>
   </si>
   <si>
     <t>ExceptionName</t>
@@ -371,6 +362,21 @@
     <t xml:space="preserve"> i. Convert list into array and then iterate but this approach we can apply on the samll list.
 Ii.For HashMap use ConcurrentHashMap and for List use CopyOnWriteArrayList.</t>
   </si>
+  <si>
+    <t>Algorithm Name</t>
+  </si>
+  <si>
+    <t>Time Complexity</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>O(nlogn)</t>
+  </si>
+  <si>
+    <t>In all 3 cases (worst, average and best) time complexity is constants</t>
+  </si>
 </sst>
 </file>
 
@@ -455,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -475,6 +481,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,7 +791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1021,16 +1030,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1038,17 +1049,32 @@
         <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1211,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,16 +1251,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>1</v>
@@ -1242,16 +1268,16 @@
     </row>
     <row r="2" spans="1:5" ht="407.25" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="E2" s="7"/>
     </row>
